--- a/example.xlsx
+++ b/example.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="290">
   <si>
     <t>No</t>
   </si>
@@ -35,7 +35,7 @@
     <t>potassium bicarbonate</t>
   </si>
   <si>
-    <t>L0002</t>
+    <t>X001</t>
   </si>
   <si>
     <t>500 g</t>
@@ -47,7 +47,7 @@
     <t>phosphorus pentachloride</t>
   </si>
   <si>
-    <t>L0005</t>
+    <t>X002</t>
   </si>
   <si>
     <t>Lancaster</t>
@@ -56,7 +56,7 @@
     <t>phthalic anhydride</t>
   </si>
   <si>
-    <t>L0006</t>
+    <t>X003</t>
   </si>
   <si>
     <t>Aldrich</t>
@@ -65,7 +65,7 @@
     <t>propionic acid</t>
   </si>
   <si>
-    <t>L0007</t>
+    <t>X004</t>
   </si>
   <si>
     <t>500 mL</t>
@@ -74,13 +74,13 @@
     <t>AJAX chemical</t>
   </si>
   <si>
-    <t>L0009</t>
+    <t>X005</t>
   </si>
   <si>
     <t>phenyl ether</t>
   </si>
   <si>
-    <t>L0010</t>
+    <t>X006</t>
   </si>
   <si>
     <t>1 kg</t>
@@ -92,7 +92,7 @@
     <t>polyphosphoric acid</t>
   </si>
   <si>
-    <t>L0011</t>
+    <t>X007</t>
   </si>
   <si>
     <t>1 Kg</t>
@@ -101,7 +101,7 @@
     <t>Phthalimide</t>
   </si>
   <si>
-    <t>L0012</t>
+    <t>X008</t>
   </si>
   <si>
     <t>TCI</t>
@@ -110,13 +110,13 @@
     <t>Phosphorus tribromide</t>
   </si>
   <si>
-    <t>L0014</t>
+    <t>X009</t>
   </si>
   <si>
     <t>Phenol</t>
   </si>
   <si>
-    <t>L0015</t>
+    <t>X010</t>
   </si>
   <si>
     <t>D.S.P</t>
@@ -125,7 +125,7 @@
     <t>p-Nitroaniline</t>
   </si>
   <si>
-    <t>L0016</t>
+    <t>X011</t>
   </si>
   <si>
     <t>Wako</t>
@@ -134,7 +134,7 @@
     <t>silver oxide</t>
   </si>
   <si>
-    <t>L0018</t>
+    <t>X012</t>
   </si>
   <si>
     <t>Kojima</t>
@@ -143,7 +143,7 @@
     <t>4-Nitrophenol</t>
   </si>
   <si>
-    <t>L0019</t>
+    <t>X013</t>
   </si>
   <si>
     <t>250 g</t>
@@ -152,13 +152,13 @@
     <t>Metanilic acid</t>
   </si>
   <si>
-    <t>L0020</t>
+    <t>X014</t>
   </si>
   <si>
     <t>Piperidine</t>
   </si>
   <si>
-    <t>L0021</t>
+    <t>X015</t>
   </si>
   <si>
     <t>500 ml</t>
@@ -167,7 +167,7 @@
     <t>pivaloyl chloride</t>
   </si>
   <si>
-    <t>L0024</t>
+    <t>X016</t>
   </si>
   <si>
     <t>DaeJung</t>
@@ -176,7 +176,7 @@
     <t>1-Methyl-4-imidazolecarboxylic Acid</t>
   </si>
   <si>
-    <t>S5201</t>
+    <t>X017</t>
   </si>
   <si>
     <t>1 g</t>
@@ -188,7 +188,7 @@
     <t>colchicine</t>
   </si>
   <si>
-    <t>S5203</t>
+    <t>X018</t>
   </si>
   <si>
     <t>500mg</t>
@@ -197,7 +197,7 @@
     <t>2-Amino-4-bromo-6-methylpyrimidine</t>
   </si>
   <si>
-    <t>S5204</t>
+    <t>X019</t>
   </si>
   <si>
     <t>combi-blocks</t>
@@ -206,7 +206,7 @@
     <t>Ethyl 3-pyridylacetate</t>
   </si>
   <si>
-    <t>S5205</t>
+    <t>X020</t>
   </si>
   <si>
     <t>5 g</t>
@@ -215,7 +215,7 @@
     <t>3-Bromo-4-hydroxybenzyl alcohol</t>
   </si>
   <si>
-    <t>S5206</t>
+    <t>X021</t>
   </si>
   <si>
     <t>OS-2018</t>
@@ -224,7 +224,7 @@
     <t>1,6-Dioxaspiro[2.5]octane</t>
   </si>
   <si>
-    <t>S5210</t>
+    <t>X022</t>
   </si>
   <si>
     <t>Ark pharm</t>
@@ -233,13 +233,13 @@
     <t>6-Chloroimidazo[1,2-b]pyridazine</t>
   </si>
   <si>
-    <t>S5211</t>
+    <t>X023</t>
   </si>
   <si>
     <t>2-Amino-5-chloro-3-fluoropyridine</t>
   </si>
   <si>
-    <t>S5212</t>
+    <t>X024</t>
   </si>
   <si>
     <t>Fluorochem</t>
@@ -248,7 +248,7 @@
     <t>2,6-Dimethylmorpholine</t>
   </si>
   <si>
-    <t>S5214</t>
+    <t>X025</t>
   </si>
   <si>
     <t>25 g</t>
@@ -260,7 +260,7 @@
     <t>2-(Chloromethyl)pyrimidine, &gt;95%</t>
   </si>
   <si>
-    <t>S5218</t>
+    <t>X026</t>
   </si>
   <si>
     <t>Matrix scientific</t>
@@ -269,19 +269,19 @@
     <t>5-Hydroxy-1-indanone</t>
   </si>
   <si>
-    <t>S5224</t>
+    <t>X027</t>
   </si>
   <si>
     <t>6-Hydroxy-1-indanone</t>
   </si>
   <si>
-    <t>S5225</t>
+    <t>X028</t>
   </si>
   <si>
     <t>5-bromo-1H,3H-pyrrolo[2,3-b]pyridin-2-one</t>
   </si>
   <si>
-    <t>S5226</t>
+    <t>X029</t>
   </si>
   <si>
     <t>Combi-blocks</t>
@@ -290,25 +290,25 @@
     <t>p-Toluenethiol</t>
   </si>
   <si>
-    <t>S5230</t>
+    <t>X030</t>
   </si>
   <si>
     <t>3-Pyridinecarboxaldehyde</t>
   </si>
   <si>
-    <t>S5239</t>
+    <t>X031</t>
   </si>
   <si>
     <t>25 ml</t>
   </si>
   <si>
-    <t>S5241</t>
+    <t>X032</t>
   </si>
   <si>
     <t>Bis(tri-tert-butylphosphine)palladium(0)</t>
   </si>
   <si>
-    <t>S5242</t>
+    <t>X033</t>
   </si>
   <si>
     <t>fluorochem</t>
@@ -317,7 +317,7 @@
     <t>1-Indanone-6-carboxylic acid</t>
   </si>
   <si>
-    <t>S5244</t>
+    <t>X034</t>
   </si>
   <si>
     <t>Bepharm</t>
@@ -326,49 +326,49 @@
     <t>Ethyl-2,2-difluoro-2-(4-methylphenyl)acetate</t>
   </si>
   <si>
-    <t>S5246</t>
+    <t>X035</t>
   </si>
   <si>
     <t>7-Hydroxy-3,4-dihydro-2H-isoquinolin-1-one</t>
   </si>
   <si>
-    <t>S5247</t>
+    <t>X036</t>
   </si>
   <si>
     <t>Methyl 5-methylpicolinate</t>
   </si>
   <si>
-    <t>S5248</t>
+    <t>X037</t>
   </si>
   <si>
     <t>5-amino-2,3-dihydro-1H-isoindol-1-one</t>
   </si>
   <si>
-    <t>S5250</t>
+    <t>X038</t>
   </si>
   <si>
     <t>Methyl 4-(bromomethyl)-3-fluorobenzoate</t>
   </si>
   <si>
-    <t>S5251</t>
+    <t>X039</t>
   </si>
   <si>
     <t>3-Methoxy-2(1H)-pyridone, 97%</t>
   </si>
   <si>
-    <t>S5255</t>
+    <t>X040</t>
   </si>
   <si>
     <t>(S)-2-Amino-1-phenylethanol</t>
   </si>
   <si>
-    <t>S5256</t>
+    <t>X041</t>
   </si>
   <si>
     <t>1-hydroxy-1,2-dihydropyridin-2-one</t>
   </si>
   <si>
-    <t>S5259</t>
+    <t>X042</t>
   </si>
   <si>
     <t>250 mg</t>
@@ -380,25 +380,25 @@
     <t>Ethyl 5-Bromovalerate</t>
   </si>
   <si>
-    <t>S5260</t>
+    <t>X043</t>
   </si>
   <si>
     <t>4-Fluoropiperidine hydrochloride</t>
   </si>
   <si>
-    <t>S5264</t>
+    <t>X044</t>
   </si>
   <si>
     <t>2-Amino-6-bromobenzothiazole, 95%</t>
   </si>
   <si>
-    <t>S5266</t>
+    <t>X045</t>
   </si>
   <si>
     <t>1H-Pyrrolo[2,3-b]pyridine-5-carboxaldehyde</t>
   </si>
   <si>
-    <t>S5268</t>
+    <t>X046</t>
   </si>
   <si>
     <t>synthonix</t>
@@ -407,13 +407,13 @@
     <t>7-Azaindole-4-carbaldehyde</t>
   </si>
   <si>
-    <t>S5271</t>
+    <t>X047</t>
   </si>
   <si>
     <t>3-(bromomethyl)benzaldehyde</t>
   </si>
   <si>
-    <t>S5272</t>
+    <t>X048</t>
   </si>
   <si>
     <t>Maybridge</t>
@@ -422,7 +422,7 @@
     <t>2-Pyridinesulfonamide</t>
   </si>
   <si>
-    <t>S5275</t>
+    <t>X049</t>
   </si>
   <si>
     <t>0.25 g</t>
@@ -431,10 +431,10 @@
     <t>(1H-Imidazol-4-yl)methanamine, HCl</t>
   </si>
   <si>
-    <t>S5276</t>
-  </si>
-  <si>
-    <t>S5277</t>
+    <t>X050</t>
+  </si>
+  <si>
+    <t>X051</t>
   </si>
   <si>
     <t>AstaTech</t>
@@ -443,34 +443,37 @@
     <t>Methyl 5-chloromethyl-2-furoate</t>
   </si>
   <si>
-    <t>S5279</t>
+    <t>X052</t>
   </si>
   <si>
     <t>2-Hydroxythiophenol, 98%</t>
   </si>
   <si>
-    <t>S5283</t>
+    <t>X053</t>
   </si>
   <si>
     <t>Imidazole-4-carboxamide</t>
   </si>
   <si>
-    <t>S5284</t>
+    <t>X054</t>
   </si>
   <si>
     <t>Pyridine-2-carboxamide</t>
   </si>
   <si>
+    <t>X055</t>
+  </si>
+  <si>
     <t>5-Bromo-2,3-dihydroisoindol-1-one</t>
   </si>
   <si>
-    <t>S5288</t>
+    <t>X056</t>
   </si>
   <si>
     <t>4-Vinylbenzyl chloride</t>
   </si>
   <si>
-    <t>S5291</t>
+    <t>X057</t>
   </si>
   <si>
     <t>aldrich</t>
@@ -479,25 +482,25 @@
     <t>5-Methoxy-3-pyridinecarboxaldehyde</t>
   </si>
   <si>
-    <t>S5292</t>
+    <t>X058</t>
   </si>
   <si>
     <t>6-Methoxy-2-pyridinecarboxaldehyde</t>
   </si>
   <si>
-    <t>S5293</t>
+    <t>X059</t>
   </si>
   <si>
     <t>Methyl  5-amino-1H-pyrazole-3-carboxylate</t>
   </si>
   <si>
-    <t>S5294</t>
+    <t>X060</t>
   </si>
   <si>
     <t>2-Bromo-5-(methanesulfonyl)pyridine</t>
   </si>
   <si>
-    <t>S5295</t>
+    <t>X061</t>
   </si>
   <si>
     <t>sigma aldrich</t>
@@ -506,19 +509,19 @@
     <t>2-Pyridinemethanol</t>
   </si>
   <si>
-    <t>S5297</t>
+    <t>X062</t>
   </si>
   <si>
     <t>Acetohydroxamic acid</t>
   </si>
   <si>
-    <t>S5298</t>
+    <t>X063</t>
   </si>
   <si>
     <t>2-Chloro-5-hydroxypyrimidine</t>
   </si>
   <si>
-    <t>S5299</t>
+    <t>X064</t>
   </si>
   <si>
     <t>10 g</t>
@@ -527,19 +530,19 @@
     <t>(1H-Imidazol-4-yl)methanol</t>
   </si>
   <si>
-    <t>S5300</t>
+    <t>X065</t>
   </si>
   <si>
     <t>2-Aminoacetanilide</t>
   </si>
   <si>
-    <t>S5301</t>
+    <t>X066</t>
   </si>
   <si>
     <t>(S)-(+)-3-Fluoropyrrolidine, HCl</t>
   </si>
   <si>
-    <t>S5303</t>
+    <t>X067</t>
   </si>
   <si>
     <t>2 g</t>
@@ -551,13 +554,13 @@
     <t>3-Hydroxy-4h-pyran-4-one</t>
   </si>
   <si>
-    <t>S5304</t>
+    <t>X068</t>
   </si>
   <si>
     <t>6-amino-2,3-dihydro-1H-isoindol-1-one</t>
   </si>
   <si>
-    <t>S5305</t>
+    <t>X069</t>
   </si>
   <si>
     <t>Ark pham</t>
@@ -566,7 +569,7 @@
     <t>3-Hydroxy-2H-pyran-2-one</t>
   </si>
   <si>
-    <t>S5308</t>
+    <t>X070</t>
   </si>
   <si>
     <t>Ark-pharm</t>
@@ -575,19 +578,19 @@
     <t>3-Bromo-4-(trifluoromethyl)benzyl alcohol, 98%</t>
   </si>
   <si>
-    <t>S5309</t>
+    <t>X071</t>
   </si>
   <si>
     <t>Potassium hexacyanoferrate(III)</t>
   </si>
   <si>
-    <t>S5315</t>
+    <t>X072</t>
   </si>
   <si>
     <t>1,2-Dihydroxybenzene</t>
   </si>
   <si>
-    <t>S5316</t>
+    <t>X073</t>
   </si>
   <si>
     <t>Sigma-Aldrich</t>
@@ -596,7 +599,7 @@
     <t>Methyl 4-bromo-3-(trifluoromethyl)benzoate</t>
   </si>
   <si>
-    <t>S5317</t>
+    <t>X074</t>
   </si>
   <si>
     <t>AK Scientific</t>
@@ -605,7 +608,7 @@
     <t>3-Bromo-1H-indole-6-carboxaldehyde</t>
   </si>
   <si>
-    <t>S5319</t>
+    <t>X075</t>
   </si>
   <si>
     <t>frontierscientific</t>
@@ -614,13 +617,13 @@
     <t>(R)-tert-butyl 2-methylpiperazine-1-carboxylate</t>
   </si>
   <si>
-    <t>S5320</t>
+    <t>X076</t>
   </si>
   <si>
     <t>3-Oxocyclobutane-1-carboxylic acid 98%</t>
   </si>
   <si>
-    <t>S5321</t>
+    <t>X077</t>
   </si>
   <si>
     <t>Apollo Scientific</t>
@@ -629,70 +632,70 @@
     <t>Methyl 4-formyl-1H-pyrrole-2-carboxylate</t>
   </si>
   <si>
-    <t>S5324</t>
+    <t>X078</t>
   </si>
   <si>
     <t>4-Cyanobenzaldehyde</t>
   </si>
   <si>
-    <t>S5341</t>
+    <t>X079</t>
   </si>
   <si>
     <t>Dibenzylamine</t>
   </si>
   <si>
-    <t>S5342</t>
+    <t>X080</t>
   </si>
   <si>
     <t>Sodium azide</t>
   </si>
   <si>
-    <t>S5344</t>
+    <t>X081</t>
   </si>
   <si>
     <t>Cesium fluoride</t>
   </si>
   <si>
-    <t>S5345</t>
+    <t>X082</t>
   </si>
   <si>
     <t>5-Chloro-2-fluoropyridine-3-boronic acid</t>
   </si>
   <si>
-    <t>S5347</t>
+    <t>X083</t>
   </si>
   <si>
     <t>(R)-(+)-4-Hydroxy-2-pyrrolidinone</t>
   </si>
   <si>
-    <t>S5358</t>
+    <t>X084</t>
   </si>
   <si>
     <t>Methyl 4-(Aminomethyl)benzoate Hydrochloride</t>
   </si>
   <si>
-    <t>S5359</t>
+    <t>X085</t>
   </si>
   <si>
     <t>Benzenesulfonyl Chloride</t>
   </si>
   <si>
-    <t>S5361</t>
+    <t>X086</t>
   </si>
   <si>
     <t>1,4-Phenylenediamine Dihydrochloride</t>
   </si>
   <si>
-    <t>S5364</t>
-  </si>
-  <si>
-    <t>S5379</t>
+    <t>X087</t>
+  </si>
+  <si>
+    <t>X088</t>
   </si>
   <si>
     <t>5-fluoro-2-formylpyridine</t>
   </si>
   <si>
-    <t>S5387</t>
+    <t>X089</t>
   </si>
   <si>
     <t>100 mg</t>
@@ -701,7 +704,7 @@
     <t>1-Methyl piperazine</t>
   </si>
   <si>
-    <t>S5399</t>
+    <t>X090</t>
   </si>
   <si>
     <t>25 mL</t>
@@ -710,124 +713,124 @@
     <t>2,6-dimetnylaniline</t>
   </si>
   <si>
-    <t>S5400</t>
+    <t>X091</t>
   </si>
   <si>
     <t>Pyrrolidine</t>
   </si>
   <si>
-    <t>S5401</t>
+    <t>X092</t>
   </si>
   <si>
     <t>4-(Methylamino)pyridine</t>
   </si>
   <si>
-    <t>S5402</t>
+    <t>X093</t>
   </si>
   <si>
     <t>Ethyl 6-chloro-2-oxohexanoate, 95%</t>
   </si>
   <si>
-    <t>S5409</t>
+    <t>X094</t>
   </si>
   <si>
     <t>4-Fluorocyclohexanone, &gt;95%</t>
   </si>
   <si>
-    <t>S5410</t>
+    <t>X095</t>
   </si>
   <si>
     <t>3-Bromoimidazo[1,2-a]pyridine</t>
   </si>
   <si>
-    <t>S5412</t>
+    <t>X096</t>
   </si>
   <si>
     <t>1-Bromo-2-chloroethane</t>
   </si>
   <si>
-    <t>S5413</t>
+    <t>X097</t>
   </si>
   <si>
     <t>2-Thiophenecarboxamide</t>
   </si>
   <si>
-    <t>S5414</t>
+    <t>X098</t>
   </si>
   <si>
     <t>4-Fluorobenzamide</t>
   </si>
   <si>
-    <t>S5415</t>
+    <t>X099</t>
   </si>
   <si>
     <t>Methyl 6-methylbenzofuran-2-carboxylate</t>
   </si>
   <si>
-    <t>S5428</t>
+    <t>X100</t>
   </si>
   <si>
     <t>1-(4-Bromophenyl)ethane-1,2-diol</t>
   </si>
   <si>
-    <t>S5429</t>
+    <t>X101</t>
   </si>
   <si>
     <t>Methyl 3,5-dihydroxyphenylacetate</t>
   </si>
   <si>
-    <t>S5430</t>
+    <t>X102</t>
   </si>
   <si>
     <t>(5-methyl-1,3,4-oxadiazol-2-yl)methanamine</t>
   </si>
   <si>
-    <t>S5431</t>
+    <t>X103</t>
   </si>
   <si>
     <t>Isovaleraldehyde</t>
   </si>
   <si>
-    <t>S5515</t>
+    <t>X104</t>
   </si>
   <si>
     <t>5-Formyl-2-thiophenecarboxylic Acid</t>
   </si>
   <si>
-    <t>S5574</t>
+    <t>X105</t>
   </si>
   <si>
     <t>5-Methylthiophene-2-carboxaldehyde</t>
   </si>
   <si>
-    <t>S5575</t>
+    <t>X106</t>
   </si>
   <si>
     <t>5-Amino-1-pentanol</t>
   </si>
   <si>
-    <t>S5576</t>
+    <t>X107</t>
   </si>
   <si>
     <t>Methyl 4-bromo-1H-indole-6-carboxylate</t>
   </si>
   <si>
-    <t>S5579</t>
+    <t>X108</t>
   </si>
   <si>
     <t>Methyl Trifluoromethanesulfonate</t>
   </si>
   <si>
-    <t>S5737</t>
-  </si>
-  <si>
-    <t>S5744</t>
+    <t>X109</t>
+  </si>
+  <si>
+    <t>X110</t>
   </si>
   <si>
     <t>4-Amino-3-iodo-1H-pyrazolo[3,4-d]pyrimidine</t>
   </si>
   <si>
-    <t>S5747</t>
+    <t>X111</t>
   </si>
   <si>
     <t>Oakwood</t>
@@ -836,19 +839,19 @@
     <t>pyridin-2(1H)-one</t>
   </si>
   <si>
-    <t>S5749</t>
+    <t>X112</t>
   </si>
   <si>
     <t>3-Bromo[1,2,4]triazolo[4,3-a]pyridine</t>
   </si>
   <si>
-    <t>S5750</t>
+    <t>X113</t>
   </si>
   <si>
     <t>6-Chloro-2-methylpyrimidin-4-amine</t>
   </si>
   <si>
-    <t>S5751</t>
+    <t>X114</t>
   </si>
   <si>
     <t>Ark pharrm</t>
@@ -857,31 +860,31 @@
     <t>3-Bromoimidazo[1,2-b]pyridazine</t>
   </si>
   <si>
-    <t>S5752</t>
+    <t>X115</t>
   </si>
   <si>
     <t>METHYL 4-(2-BROMOETHYL)BENZOATE</t>
   </si>
   <si>
-    <t>S5753</t>
+    <t>X116</t>
   </si>
   <si>
     <t>3-Bromo-5-chloro-6-fluorobenzonitrile</t>
   </si>
   <si>
-    <t>S5754</t>
+    <t>X117</t>
   </si>
   <si>
     <t>TERT-BUTYL 2-HYDROXYACETATE</t>
   </si>
   <si>
-    <t>S5755</t>
+    <t>X118</t>
   </si>
   <si>
     <t>4-(2-Oxoethyl)benzonitrile</t>
   </si>
   <si>
-    <t>S5756</t>
+    <t>X119</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1035,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in 표준 2" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in 표준 2" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1045,9 +1048,9 @@
   <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
+      <selection pane="bottomLeft" activeCell="C124" activeCellId="0" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1080,7 +1083,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>5</v>
@@ -1097,7 +1100,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>9</v>
@@ -1114,7 +1117,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>12</v>
@@ -1131,7 +1134,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>15</v>
@@ -1148,7 +1151,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>12</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>20</v>
@@ -1182,7 +1185,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>24</v>
@@ -1199,7 +1202,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>27</v>
@@ -1216,7 +1219,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>30</v>
@@ -1233,7 +1236,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>32</v>
@@ -1250,7 +1253,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>35</v>
@@ -1267,7 +1270,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>38</v>
@@ -1284,7 +1287,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>41</v>
@@ -1301,7 +1304,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>44</v>
@@ -1318,7 +1321,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>46</v>
@@ -1335,7 +1338,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>49</v>
@@ -1352,12 +1355,12 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
-        <v>7819</v>
+        <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -1369,12 +1372,12 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
-        <v>7820</v>
+        <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -1386,12 +1389,12 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
-        <v>7821</v>
+        <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -1403,12 +1406,12 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
-        <v>7822</v>
+        <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -1420,12 +1423,12 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
-        <v>7823</v>
+        <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -1437,12 +1440,12 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
-        <v>7827</v>
+        <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -1454,12 +1457,12 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
-        <v>7828</v>
+        <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -1471,12 +1474,12 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
-        <v>7829</v>
+        <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D25" s="10" t="s">
@@ -1488,12 +1491,12 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
-        <v>7831</v>
+        <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>77</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -1505,12 +1508,12 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
-        <v>7832</v>
+        <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -1522,12 +1525,12 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
-        <v>7833</v>
+        <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -1539,12 +1542,12 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
-        <v>7834</v>
+        <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>86</v>
       </c>
       <c r="D29" s="10" t="s">
@@ -1556,12 +1559,12 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
-        <v>7835</v>
+        <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>88</v>
       </c>
       <c r="D30" s="10" t="s">
@@ -1573,12 +1576,12 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
-        <v>7838</v>
+        <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="8" t="s">
         <v>91</v>
       </c>
       <c r="D31" s="10" t="s">
@@ -1590,12 +1593,12 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="n">
-        <v>7839</v>
+        <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -1607,12 +1610,12 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="n">
-        <v>7841</v>
+        <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="8" t="s">
         <v>95</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -1624,12 +1627,12 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="n">
-        <v>7842</v>
+        <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="8" t="s">
         <v>97</v>
       </c>
       <c r="D34" s="10" t="s">
@@ -1641,12 +1644,12 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="n">
-        <v>7844</v>
+        <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>100</v>
       </c>
       <c r="D35" s="10" t="s">
@@ -1658,12 +1661,12 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="n">
-        <v>7846</v>
+        <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="8" t="s">
         <v>103</v>
       </c>
       <c r="D36" s="10" t="s">
@@ -1675,12 +1678,12 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="n">
-        <v>7847</v>
+        <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="8" t="s">
         <v>105</v>
       </c>
       <c r="D37" s="10" t="s">
@@ -1692,12 +1695,12 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="n">
-        <v>7848</v>
+        <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>107</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -1709,12 +1712,12 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="n">
-        <v>7850</v>
+        <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="8" t="s">
         <v>109</v>
       </c>
       <c r="D39" s="10" t="s">
@@ -1726,12 +1729,12 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="n">
-        <v>7851</v>
+        <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="8" t="s">
         <v>111</v>
       </c>
       <c r="D40" s="10" t="s">
@@ -1743,12 +1746,12 @@
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="n">
-        <v>7852</v>
+        <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D41" s="10" t="s">
@@ -1760,12 +1763,12 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="n">
-        <v>7853</v>
+        <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D42" s="10" t="s">
@@ -1777,12 +1780,12 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="n">
-        <v>7856</v>
+        <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="8" t="s">
         <v>117</v>
       </c>
       <c r="D43" s="10" t="s">
@@ -1794,12 +1797,12 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="n">
-        <v>7857</v>
+        <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D44" s="10" t="s">
@@ -1811,12 +1814,12 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="n">
-        <v>7860</v>
+        <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="8" t="s">
         <v>123</v>
       </c>
       <c r="D45" s="10" t="s">
@@ -1828,12 +1831,12 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="n">
-        <v>7861</v>
+        <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="8" t="s">
         <v>125</v>
       </c>
       <c r="D46" s="10" t="s">
@@ -1845,12 +1848,12 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="n">
-        <v>7863</v>
+        <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="8" t="s">
         <v>127</v>
       </c>
       <c r="D47" s="10" t="s">
@@ -1862,12 +1865,12 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="n">
-        <v>7866</v>
+        <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="8" t="s">
         <v>130</v>
       </c>
       <c r="D48" s="10" t="s">
@@ -1879,12 +1882,12 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="n">
-        <v>7867</v>
+        <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="8" t="s">
         <v>132</v>
       </c>
       <c r="D49" s="10" t="s">
@@ -1896,12 +1899,12 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="n">
-        <v>7870</v>
+        <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="8" t="s">
         <v>135</v>
       </c>
       <c r="D50" s="10" t="s">
@@ -1913,12 +1916,12 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="n">
-        <v>7871</v>
+        <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="8" t="s">
         <v>138</v>
       </c>
       <c r="D51" s="10" t="s">
@@ -1930,12 +1933,12 @@
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="n">
-        <v>7872</v>
+        <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>139</v>
       </c>
       <c r="D52" s="10" t="s">
@@ -1947,12 +1950,12 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="n">
-        <v>7874</v>
+        <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="8" t="s">
         <v>142</v>
       </c>
       <c r="D53" s="10" t="s">
@@ -1964,12 +1967,12 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="n">
-        <v>7878</v>
+        <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="8" t="s">
         <v>144</v>
       </c>
       <c r="D54" s="10" t="s">
@@ -1981,12 +1984,12 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="n">
-        <v>7879</v>
+        <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="8" t="s">
         <v>146</v>
       </c>
       <c r="D55" s="10" t="s">
@@ -1998,13 +2001,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="n">
-        <v>7880</v>
+        <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>146</v>
+      <c r="C56" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>64</v>
@@ -2015,13 +2018,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="n">
-        <v>7881</v>
+        <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C57" s="10" t="s">
         <v>149</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>64</v>
@@ -2032,64 +2035,64 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="n">
-        <v>7884</v>
+        <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C58" s="10" t="s">
         <v>151</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>94</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="n">
-        <v>7885</v>
+        <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="n">
-        <v>7886</v>
+        <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C60" s="10" t="s">
         <v>156</v>
       </c>
+      <c r="C60" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="D60" s="10" t="s">
         <v>54</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="n">
-        <v>7887</v>
+        <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C61" s="10" t="s">
         <v>158</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>118</v>
@@ -2100,30 +2103,30 @@
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="n">
-        <v>7888</v>
+        <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" s="10" t="s">
         <v>160</v>
       </c>
+      <c r="C62" s="8" t="s">
+        <v>161</v>
+      </c>
       <c r="D62" s="10" t="s">
         <v>54</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="n">
-        <v>7890</v>
+        <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C63" s="10" t="s">
         <v>163</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>64</v>
@@ -2134,13 +2137,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="n">
-        <v>7891</v>
+        <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C64" s="10" t="s">
         <v>165</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>64</v>
@@ -2151,16 +2154,16 @@
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="n">
-        <v>7892</v>
+        <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C65" s="10" t="s">
         <v>167</v>
       </c>
+      <c r="C65" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="D65" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>61</v>
@@ -2168,13 +2171,13 @@
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="n">
-        <v>7893</v>
+        <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C66" s="10" t="s">
         <v>170</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>54</v>
@@ -2185,13 +2188,13 @@
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="n">
-        <v>7894</v>
+        <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C67" s="10" t="s">
         <v>172</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>54</v>
@@ -2202,30 +2205,30 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="n">
-        <v>7895</v>
+        <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C68" s="10" t="s">
         <v>174</v>
       </c>
+      <c r="C68" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="D68" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="n">
-        <v>7896</v>
+        <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C69" s="10" t="s">
         <v>178</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>118</v>
@@ -2236,47 +2239,47 @@
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="n">
-        <v>7897</v>
+        <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C70" s="10" t="s">
         <v>180</v>
       </c>
+      <c r="C70" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="D70" s="10" t="s">
         <v>54</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="n">
-        <v>7898</v>
+        <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C71" s="10" t="s">
         <v>183</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>118</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="n">
-        <v>7899</v>
+        <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C72" s="10" t="s">
         <v>186</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>54</v>
@@ -2287,84 +2290,84 @@
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="n">
-        <v>7904</v>
+        <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C73" s="10" t="s">
         <v>188</v>
       </c>
+      <c r="C73" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="D73" s="10" t="s">
         <v>64</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="n">
-        <v>7905</v>
+        <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C74" s="10" t="s">
         <v>190</v>
       </c>
+      <c r="C74" s="8" t="s">
+        <v>191</v>
+      </c>
       <c r="D74" s="10" t="s">
         <v>64</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="n">
-        <v>7906</v>
+        <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C75" s="10" t="s">
         <v>193</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="n">
-        <v>7908</v>
+        <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C76" s="10" t="s">
         <v>196</v>
       </c>
+      <c r="C76" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="D76" s="10" t="s">
         <v>64</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="n">
-        <v>7909</v>
+        <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C77" s="10" t="s">
         <v>199</v>
       </c>
+      <c r="C77" s="8" t="s">
+        <v>200</v>
+      </c>
       <c r="D77" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>128</v>
@@ -2372,30 +2375,30 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="n">
-        <v>7910</v>
+        <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C78" s="10" t="s">
         <v>201</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="n">
-        <v>7913</v>
+        <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C79" s="10" t="s">
         <v>204</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>54</v>
@@ -2406,13 +2409,13 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="n">
-        <v>7926</v>
+        <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C80" s="10" t="s">
         <v>206</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>78</v>
@@ -2423,13 +2426,13 @@
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="n">
-        <v>7927</v>
+        <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C81" s="10" t="s">
         <v>208</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>78</v>
@@ -2440,13 +2443,13 @@
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="n">
-        <v>7928</v>
+        <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C82" s="10" t="s">
         <v>210</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>78</v>
@@ -2457,13 +2460,13 @@
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="n">
-        <v>7929</v>
+        <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C83" s="10" t="s">
         <v>212</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>78</v>
@@ -2474,16 +2477,16 @@
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="n">
-        <v>7930</v>
+        <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C84" s="10" t="s">
         <v>214</v>
       </c>
+      <c r="C84" s="8" t="s">
+        <v>215</v>
+      </c>
       <c r="D84" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>61</v>
@@ -2491,13 +2494,13 @@
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="n">
-        <v>7941</v>
+        <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C85" s="10" t="s">
         <v>216</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>54</v>
@@ -2508,13 +2511,13 @@
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="n">
-        <v>7942</v>
+        <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C86" s="10" t="s">
         <v>218</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>64</v>
@@ -2525,13 +2528,13 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="n">
-        <v>7943</v>
+        <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C87" s="10" t="s">
         <v>220</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>78</v>
@@ -2542,13 +2545,13 @@
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="n">
-        <v>7944</v>
+        <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C88" s="10" t="s">
         <v>222</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>78</v>
@@ -2559,13 +2562,13 @@
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="n">
-        <v>7956</v>
+        <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>223</v>
+        <v>149</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>64</v>
@@ -2576,33 +2579,33 @@
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="n">
-        <v>7964</v>
+        <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C90" s="10" t="s">
         <v>225</v>
       </c>
+      <c r="C90" s="8" t="s">
+        <v>226</v>
+      </c>
       <c r="D90" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="n">
-        <v>7972</v>
+        <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C91" s="10" t="s">
         <v>228</v>
       </c>
+      <c r="C91" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="D91" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>29</v>
@@ -2610,16 +2613,16 @@
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="n">
-        <v>7973</v>
+        <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D92" s="10" t="s">
         <v>230</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>29</v>
@@ -2627,13 +2630,13 @@
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="n">
-        <v>7974</v>
+        <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C93" s="10" t="s">
         <v>233</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>94</v>
@@ -2644,13 +2647,13 @@
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="n">
-        <v>7975</v>
+        <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C94" s="10" t="s">
         <v>235</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>64</v>
@@ -2661,13 +2664,13 @@
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="n">
-        <v>7982</v>
+        <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C95" s="10" t="s">
         <v>237</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>54</v>
@@ -2678,13 +2681,13 @@
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="n">
-        <v>7983</v>
+        <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C96" s="10" t="s">
         <v>239</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>54</v>
@@ -2695,13 +2698,13 @@
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="n">
-        <v>7985</v>
+        <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C97" s="10" t="s">
         <v>241</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>54</v>
@@ -2712,13 +2715,13 @@
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="n">
-        <v>7986</v>
+        <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C98" s="10" t="s">
         <v>243</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>64</v>
@@ -2729,13 +2732,13 @@
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="n">
-        <v>7987</v>
+        <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C99" s="10" t="s">
         <v>245</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>64</v>
@@ -2746,13 +2749,13 @@
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="n">
-        <v>7988</v>
+        <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C100" s="10" t="s">
         <v>247</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>64</v>
@@ -2763,30 +2766,30 @@
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="n">
-        <v>8000</v>
+        <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C101" s="10" t="s">
         <v>249</v>
       </c>
+      <c r="C101" s="8" t="s">
+        <v>250</v>
+      </c>
       <c r="D101" s="10" t="s">
         <v>54</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="n">
-        <v>8001</v>
+        <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C102" s="10" t="s">
         <v>251</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>54</v>
@@ -2797,13 +2800,13 @@
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="n">
-        <v>8002</v>
+        <v>102</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C103" s="10" t="s">
         <v>253</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>54</v>
@@ -2814,13 +2817,13 @@
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="n">
-        <v>8003</v>
+        <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C104" s="10" t="s">
         <v>255</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>54</v>
@@ -2831,30 +2834,30 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="n">
-        <v>8086</v>
+        <v>104</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C105" s="10" t="s">
         <v>257</v>
       </c>
+      <c r="C105" s="8" t="s">
+        <v>258</v>
+      </c>
       <c r="D105" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E105" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="n">
-        <v>8148</v>
+        <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C106" s="10" t="s">
         <v>259</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>64</v>
@@ -2863,18 +2866,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="n">
-        <v>8149</v>
+        <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C107" s="10" t="s">
         <v>261</v>
       </c>
+      <c r="C107" s="8" t="s">
+        <v>262</v>
+      </c>
       <c r="D107" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>29</v>
@@ -2882,13 +2885,13 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="n">
-        <v>8150</v>
+        <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C108" s="10" t="s">
         <v>263</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>264</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>78</v>
@@ -2899,13 +2902,13 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="n">
-        <v>8151</v>
+        <v>108</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C109" s="10" t="s">
         <v>265</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>54</v>
@@ -2916,13 +2919,13 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="n">
-        <v>8311</v>
+        <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C110" s="10" t="s">
         <v>267</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>64</v>
@@ -2933,13 +2936,13 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="n">
-        <v>8317</v>
+        <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>268</v>
+      <c r="C111" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>64</v>
@@ -2950,30 +2953,30 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="n">
-        <v>8320</v>
+        <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C112" s="10" t="s">
         <v>270</v>
       </c>
+      <c r="C112" s="8" t="s">
+        <v>271</v>
+      </c>
       <c r="D112" s="10" t="s">
         <v>64</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="n">
-        <v>8322</v>
+        <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="C113" s="10" t="s">
         <v>273</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>78</v>
@@ -2982,15 +2985,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="n">
-        <v>8323</v>
+        <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C114" s="10" t="s">
         <v>275</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>54</v>
@@ -3001,47 +3004,47 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="n">
-        <v>8324</v>
+        <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="C115" s="10" t="s">
         <v>277</v>
       </c>
+      <c r="C115" s="8" t="s">
+        <v>278</v>
+      </c>
       <c r="D115" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="n">
-        <v>8325</v>
+        <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="C116" s="10" t="s">
         <v>280</v>
       </c>
+      <c r="C116" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="D116" s="10" t="s">
         <v>64</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="n">
-        <v>8326</v>
+        <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="C117" s="10" t="s">
         <v>282</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>64</v>
@@ -3052,13 +3055,13 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="n">
-        <v>8327</v>
+        <v>117</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="C118" s="10" t="s">
         <v>284</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>285</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>54</v>
@@ -3067,15 +3070,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="n">
-        <v>8328</v>
+        <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C119" s="10" t="s">
         <v>286</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>54</v>
@@ -3084,15 +3087,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="n">
-        <v>8329</v>
+        <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="C120" s="10" t="s">
         <v>288</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>54</v>

--- a/example.xlsx
+++ b/example.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="2014 1212 reagents" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="reagents" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -1035,7 +1037,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in 표준 2" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in 표준 2" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1047,7 +1049,7 @@
   </sheetPr>
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C124" activeCellId="0" sqref="C124"/>
@@ -3113,4 +3115,50 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>